--- a/urls.xlsx
+++ b/urls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vscode\dist\pdf_downloader\pdf_downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A7F02-7254-400B-8B4D-40CF4C5FCDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F19F8-33AE-4A07-8A51-2232989434F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5EAE4760-4557-4BEF-A6D6-F94C89C74EEC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Без фото</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Азов 1 Маяковского</t>
   </si>
   <si>
-    <t>Продукция для животных_Корма для собак</t>
-  </si>
-  <si>
     <t>Сеть ГМ</t>
   </si>
   <si>
@@ -65,13 +62,40 @@
   </si>
   <si>
     <t>Формат</t>
+  </si>
+  <si>
+    <t>ХО САН</t>
+  </si>
+  <si>
+    <t>Заморозка. Пельмени, хинкали, вареники фас.</t>
+  </si>
+  <si>
+    <t>NF_НБ_Мужские ЧНИ</t>
+  </si>
+  <si>
+    <t>NF_Автотовары_Все</t>
+  </si>
+  <si>
+    <t>СП 10.20 остров 5</t>
+  </si>
+  <si>
+    <t>ХО. Здоровье</t>
+  </si>
+  <si>
+    <t>NF_Товары для новорожденных</t>
+  </si>
+  <si>
+    <t>Майкоп 1 Привокзальная</t>
+  </si>
+  <si>
+    <t>Майкоп 2 Пионерская</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -79,16 +103,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,12 +133,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,49 +468,151 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785FC13C-8DEB-47BA-91A9-4577B3F8C421}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
         <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
